--- a/biology/Histoire de la zoologie et de la botanique/Ernst_Schwarz/Ernst_Schwarz.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ernst_Schwarz/Ernst_Schwarz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst Schwarz (1er décembre 1889 - 23 septembre 1962) était un zoologiste allemand spécialisé dans l'étude des grands singes.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Francfort, il a étudié la zoologie à Munich puis a travaillé au Muséum d'histoire naturelle de Francfort et au Muséum de Zoologie de Berlin.
 En 1929 il devient professeur de zoologie à Greifswald. Il émigre ensuite à Londres en 1933 où il travaille au Muséum d'histoire naturelle de 1933 à 1937. Puis il part pour les États-Unis.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Men who Named the African Apes, Gorilla Journal 11, December 1995.</t>
         </is>
